--- a/app/accounting/402000AL/9 Grand Avenue, Camellia Back Up.xlsx
+++ b/app/accounting/402000AL/9 Grand Avenue, Camellia Back Up.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\00-Bridge Database\402000AL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B891F9B-85C2-4998-B426-346CF7990E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4F0073-3A6B-4569-A264-EDFDE604B48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="1005" windowWidth="21600" windowHeight="11505" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
+    <workbookView xWindow="47730" yWindow="6255" windowWidth="16200" windowHeight="7200" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
   <sheets>
     <sheet name="Fee Proposal" sheetId="11" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="188">
   <si>
     <t>Premium Consulting Engineers</t>
   </si>
@@ -502,7 +502,10 @@
     <t>1-2</t>
   </si>
   <si>
-    <t>3-4</t>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>6-12</t>
   </si>
   <si>
     <t>2.1</t>
@@ -514,6 +517,18 @@
     <t>Map out existing mechanical components</t>
   </si>
   <si>
+    <t>Review BCA report to ensure smoke control compliance;</t>
+  </si>
+  <si>
+    <t>Assess the existing ventilation system the suitability of using for air conditioning</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>NCC Section J compliance</t>
+  </si>
+  <si>
     <t>Air conditioning design to the tenancy area as required;</t>
   </si>
   <si>
@@ -532,7 +547,7 @@
     <t>D&amp;BP Act class 2 building design declaration</t>
   </si>
   <si>
-    <t>1 off site visit</t>
+    <t>3 off site visits/meeings</t>
   </si>
   <si>
     <t>2.2</t>
@@ -1849,7 +1864,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="30" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>104</v>
@@ -2128,10 +2143,10 @@
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C52" s="3"/>
       <c r="E52" s="8"/>
@@ -2144,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G53" s="1"/>
       <c r="I53" s="1"/>
@@ -2154,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I54" s="1"/>
     </row>
@@ -2163,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -2174,11 +2189,9 @@
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="21" t="s">
-        <v>1</v>
-      </c>
+      <c r="A56" s="21"/>
       <c r="B56" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I56" s="1"/>
     </row>
@@ -2187,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -2201,7 +2214,7 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -2215,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -2229,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -2239,7 +2252,12 @@
       <c r="H60" s="5"/>
     </row>
     <row r="61" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
+      <c r="A61" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>163</v>
+      </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -2249,10 +2267,10 @@
     </row>
     <row r="62" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>163</v>
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>164</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -2266,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -2280,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -2290,12 +2308,7 @@
       <c r="H64" s="5"/>
     </row>
     <row r="65" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" t="s">
-        <v>166</v>
-      </c>
+      <c r="A65" s="21"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -2304,7 +2317,12 @@
       <c r="H65" s="5"/>
     </row>
     <row r="66" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="21"/>
+      <c r="A66" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -2314,10 +2332,10 @@
     </row>
     <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>168</v>
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>169</v>
       </c>
       <c r="C67" s="3"/>
       <c r="E67" s="8"/>
@@ -2331,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
@@ -2346,7 +2364,7 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
@@ -2354,30 +2372,45 @@
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B70" t="s">
-        <v>171</v>
-      </c>
+      <c r="A70" s="21"/>
     </row>
     <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="21"/>
+      <c r="A71" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="C71" s="3"/>
       <c r="I71" s="43"/>
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="21"/>
+      <c r="A72" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>174</v>
+      </c>
       <c r="C72" s="3"/>
       <c r="I72" s="43"/>
     </row>
     <row r="73" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="21"/>
+      <c r="A73" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>175</v>
+      </c>
       <c r="C73" s="3"/>
       <c r="I73" s="43"/>
     </row>
     <row r="74" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
+      <c r="A74" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
+        <v>176</v>
+      </c>
       <c r="C74" s="3"/>
       <c r="I74" s="43"/>
     </row>
@@ -2695,7 +2728,7 @@
         <v>1</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="9"/>
@@ -2708,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="23"/>
@@ -2721,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="23"/>
@@ -2735,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C105" s="12"/>
       <c r="D105" s="7"/>
@@ -2748,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
@@ -2761,7 +2794,7 @@
         <v>1</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C107"/>
       <c r="D107"/>
@@ -2775,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C108"/>
       <c r="D108"/>
@@ -2788,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q109" s="10"/>
     </row>
@@ -2797,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C110"/>
       <c r="D110"/>
@@ -2810,7 +2843,7 @@
         <v>1</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C111"/>
       <c r="D111"/>
@@ -3159,16 +3192,16 @@
     <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="64" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C136" s="65"/>
       <c r="D136" s="65"/>
       <c r="E136" s="66"/>
       <c r="F136" s="31">
-        <v>1000</v>
+        <v>8600</v>
       </c>
       <c r="G136" s="31">
-        <v>1100</v>
+        <v>9460</v>
       </c>
       <c r="H136" s="23"/>
       <c r="I136" s="7"/>
@@ -3435,7 +3468,7 @@
       </c>
       <c r="F165" s="58">
         <f ca="1">TODAY()</f>
-        <v>45343</v>
+        <v>45345</v>
       </c>
       <c r="G165" s="58"/>
     </row>
